--- a/Master.xlsx
+++ b/Master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E44E8AB9-C3AC-41EE-8F8F-DEA210A01852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32BB2EE3-F5A7-447B-9E82-B34EE0CD02EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
   </bookViews>
@@ -20,12 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Healthcare</t>
   </si>
@@ -103,6 +114,9 @@
   </si>
   <si>
     <t xml:space="preserve">Games Worldwide Dataset </t>
+  </si>
+  <si>
+    <t>Parkinson</t>
   </si>
 </sst>
 </file>
@@ -502,7 +516,7 @@
   <dimension ref="B1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -616,6 +630,9 @@
         <v>10</v>
       </c>
       <c r="C13" s="3"/>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C14" s="3"/>

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32BB2EE3-F5A7-447B-9E82-B34EE0CD02EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB7E34A-0047-4DF2-9915-38D522F278B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
   </bookViews>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Healthcare</t>
   </si>
@@ -68,9 +57,6 @@
     <t>Crypto</t>
   </si>
   <si>
-    <t>Services</t>
-  </si>
-  <si>
     <t>Telecom &amp; Media</t>
   </si>
   <si>
@@ -98,9 +84,6 @@
     <t>Patents</t>
   </si>
   <si>
-    <t>HCIT</t>
-  </si>
-  <si>
     <t>Biopharma</t>
   </si>
   <si>
@@ -117,6 +100,9 @@
   </si>
   <si>
     <t>Parkinson</t>
+  </si>
+  <si>
+    <t>HC Services</t>
   </si>
 </sst>
 </file>
@@ -516,7 +502,7 @@
   <dimension ref="B1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -540,17 +526,17 @@
         <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C3" s="3"/>
       <c r="D3" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
@@ -574,7 +560,7 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="5"/>
@@ -582,7 +568,7 @@
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C7" s="3"/>
       <c r="D7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -592,31 +578,29 @@
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C9" s="3"/>
       <c r="D9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B11" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="B11" s="2"/>
       <c r="C11" s="3"/>
       <c r="D11" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
@@ -627,11 +611,11 @@
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
@@ -644,7 +628,7 @@
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
@@ -654,17 +638,17 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="2"/>
@@ -689,7 +673,7 @@
     <hyperlink ref="B15" r:id="rId1" xr:uid="{7BD72134-257F-4B05-A458-E84443D3C1BA}"/>
     <hyperlink ref="B12" r:id="rId2" xr:uid="{E9A02E12-5086-4F8F-855E-88B9AB1700B9}"/>
     <hyperlink ref="B10" r:id="rId3" xr:uid="{F3A619FF-CD81-419C-9F2D-9AF3BAF99313}"/>
-    <hyperlink ref="B13" r:id="rId4" xr:uid="{3E3A7D78-2225-4FDD-A53E-395F4DEBA1CA}"/>
+    <hyperlink ref="B13" r:id="rId4" display="Services" xr:uid="{3E3A7D78-2225-4FDD-A53E-395F4DEBA1CA}"/>
     <hyperlink ref="B5" r:id="rId5" xr:uid="{1DCFCDF4-EFB4-495D-8529-6916F8E3FAF9}"/>
     <hyperlink ref="B4" r:id="rId6" xr:uid="{7391B2CC-0ADA-4E8B-94E2-02F6C460E04D}"/>
     <hyperlink ref="B6" r:id="rId7" xr:uid="{709BE174-354B-414C-9E0C-0CB26CB17087}"/>
@@ -701,16 +685,15 @@
     <hyperlink ref="B20" r:id="rId13" xr:uid="{94B54C11-D57C-4517-801E-20549E100878}"/>
     <hyperlink ref="B21" r:id="rId14" xr:uid="{548404B7-486D-4DC1-8702-5308F6B726F9}"/>
     <hyperlink ref="D7" r:id="rId15" xr:uid="{7461AF2B-1114-4E32-AB2C-C6FAFC7D3A58}"/>
-    <hyperlink ref="B11" r:id="rId16" xr:uid="{2C353417-9F4E-40AB-B114-1CBC57D488C4}"/>
-    <hyperlink ref="D11" r:id="rId17" xr:uid="{48D24448-8336-4F85-A615-1301297E8AB2}"/>
-    <hyperlink ref="D9" r:id="rId18" xr:uid="{04269E00-6C8E-43B0-AEAA-6E9875BD4BB1}"/>
-    <hyperlink ref="B16" r:id="rId19" xr:uid="{9F42216A-D0D1-49BF-A668-FAA4E57ACAFD}"/>
-    <hyperlink ref="B19" r:id="rId20" xr:uid="{D1C3BC07-4E48-4FE6-9B08-2FF79CC92C96}"/>
-    <hyperlink ref="D8" r:id="rId21" xr:uid="{145E9CFF-8EF8-4BAF-B794-51479F59948C}"/>
-    <hyperlink ref="D3" r:id="rId22" xr:uid="{4605C416-EB83-46E2-BC02-38491D81884F}"/>
+    <hyperlink ref="D11" r:id="rId16" xr:uid="{48D24448-8336-4F85-A615-1301297E8AB2}"/>
+    <hyperlink ref="D9" r:id="rId17" xr:uid="{04269E00-6C8E-43B0-AEAA-6E9875BD4BB1}"/>
+    <hyperlink ref="B16" r:id="rId18" xr:uid="{9F42216A-D0D1-49BF-A668-FAA4E57ACAFD}"/>
+    <hyperlink ref="B19" r:id="rId19" xr:uid="{D1C3BC07-4E48-4FE6-9B08-2FF79CC92C96}"/>
+    <hyperlink ref="D8" r:id="rId20" xr:uid="{145E9CFF-8EF8-4BAF-B794-51479F59948C}"/>
+    <hyperlink ref="D3" r:id="rId21" xr:uid="{4605C416-EB83-46E2-BC02-38491D81884F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId23"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId22"/>
 </worksheet>
 </file>
 

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB7E34A-0047-4DF2-9915-38D522F278B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD97CF81-BDCC-47B6-AF21-4FDFCFB07C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
+    <workbookView xWindow="15675" yWindow="1080" windowWidth="10110" windowHeight="12570" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
